--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10995,6 +10995,150 @@
       <c r="J301" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>368.3661538461538</v>
+      </c>
+      <c r="C302" t="n">
+        <v>384.2736842105263</v>
+      </c>
+      <c r="D302" t="n">
+        <v>388.5218181818182</v>
+      </c>
+      <c r="E302" t="n">
+        <v>391.57</v>
+      </c>
+      <c r="F302" t="n">
+        <v>390.6860869565218</v>
+      </c>
+      <c r="G302" t="n">
+        <v>399.8118181818182</v>
+      </c>
+      <c r="H302" t="n">
+        <v>398.1214285714286</v>
+      </c>
+      <c r="I302" t="n">
+        <v>403.8561538461539</v>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>375.1692307692308</v>
+      </c>
+      <c r="C303" t="n">
+        <v>387.6894736842105</v>
+      </c>
+      <c r="D303" t="n">
+        <v>391.4509090909091</v>
+      </c>
+      <c r="E303" t="n">
+        <v>401.01</v>
+      </c>
+      <c r="F303" t="n">
+        <v>403.0039130434782</v>
+      </c>
+      <c r="G303" t="n">
+        <v>404.5209090909091</v>
+      </c>
+      <c r="H303" t="n">
+        <v>412.19</v>
+      </c>
+      <c r="I303" t="n">
+        <v>393.0892307692308</v>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>374.5153846153846</v>
+      </c>
+      <c r="C304" t="n">
+        <v>389.2063157894737</v>
+      </c>
+      <c r="D304" t="n">
+        <v>396.7090909090909</v>
+      </c>
+      <c r="E304" t="n">
+        <v>401.0033333333333</v>
+      </c>
+      <c r="F304" t="n">
+        <v>400.1791304347826</v>
+      </c>
+      <c r="G304" t="n">
+        <v>410.509090909091</v>
+      </c>
+      <c r="H304" t="n">
+        <v>410.2052380952381</v>
+      </c>
+      <c r="I304" t="n">
+        <v>400.6753846153846</v>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>377.8730769230769</v>
+      </c>
+      <c r="C305" t="n">
+        <v>385.8363157894737</v>
+      </c>
+      <c r="D305" t="n">
+        <v>385.91</v>
+      </c>
+      <c r="E305" t="n">
+        <v>389.87</v>
+      </c>
+      <c r="F305" t="n">
+        <v>392.6304347826087</v>
+      </c>
+      <c r="G305" t="n">
+        <v>401.01</v>
+      </c>
+      <c r="H305" t="n">
+        <v>407.5671428571428</v>
+      </c>
+      <c r="I305" t="n">
+        <v>399.0230769230769</v>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11009,7 +11153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14117,6 +14261,46 @@
       </c>
       <c r="B310" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -14285,28 +14469,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09789567132155695</v>
+        <v>0.0811564166973656</v>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K2" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005528523859430368</v>
+        <v>0.00390892528806297</v>
       </c>
       <c r="M2" t="n">
-        <v>6.926221948914368</v>
+        <v>6.900878263218088</v>
       </c>
       <c r="N2" t="n">
-        <v>82.17826762136146</v>
+        <v>81.60080005372866</v>
       </c>
       <c r="O2" t="n">
-        <v>9.065222976924586</v>
+        <v>9.033316116118636</v>
       </c>
       <c r="P2" t="n">
-        <v>376.9909220935841</v>
+        <v>377.15891825883</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14362,28 +14546,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1354395353282275</v>
+        <v>0.1123396932493026</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K3" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01281572993684388</v>
+        <v>0.009039376403304211</v>
       </c>
       <c r="M3" t="n">
-        <v>6.232490297482935</v>
+        <v>6.251867582174514</v>
       </c>
       <c r="N3" t="n">
-        <v>67.95268701440483</v>
+        <v>67.84365926323285</v>
       </c>
       <c r="O3" t="n">
-        <v>8.243341980920411</v>
+        <v>8.23672624670948</v>
       </c>
       <c r="P3" t="n">
-        <v>391.0249008207756</v>
+        <v>391.255233701048</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -14439,28 +14623,28 @@
         <v>0.1319</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1555417250901011</v>
+        <v>0.1415567602214683</v>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K4" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01855452633652255</v>
+        <v>0.01581427640702004</v>
       </c>
       <c r="M4" t="n">
-        <v>5.97424293049068</v>
+        <v>5.965799878616278</v>
       </c>
       <c r="N4" t="n">
-        <v>61.05287107301753</v>
+        <v>60.70775686274353</v>
       </c>
       <c r="O4" t="n">
-        <v>7.81363366642035</v>
+        <v>7.791518264288644</v>
       </c>
       <c r="P4" t="n">
-        <v>391.2902940323916</v>
+        <v>391.4298435175621</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -14516,28 +14700,28 @@
         <v>0.1454</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08747260039008824</v>
+        <v>0.07496953963902081</v>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00646588954178684</v>
+        <v>0.004868246761354666</v>
       </c>
       <c r="M5" t="n">
-        <v>5.831983094516159</v>
+        <v>5.824954470057746</v>
       </c>
       <c r="N5" t="n">
-        <v>56.58591279134519</v>
+        <v>56.40421763662881</v>
       </c>
       <c r="O5" t="n">
-        <v>7.522360852242147</v>
+        <v>7.51027413858035</v>
       </c>
       <c r="P5" t="n">
-        <v>397.8062781994333</v>
+        <v>397.9303563954973</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -14593,28 +14777,28 @@
         <v>0.143</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1422430066720377</v>
+        <v>0.1298962495656334</v>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K6" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01569942438098282</v>
+        <v>0.01345196518349434</v>
       </c>
       <c r="M6" t="n">
-        <v>5.876842533522558</v>
+        <v>5.869915870449242</v>
       </c>
       <c r="N6" t="n">
-        <v>60.76063407197144</v>
+        <v>60.49669117061301</v>
       </c>
       <c r="O6" t="n">
-        <v>7.794910780244469</v>
+        <v>7.777961890534885</v>
       </c>
       <c r="P6" t="n">
-        <v>397.0617305267133</v>
+        <v>397.1841522400426</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14670,28 +14854,28 @@
         <v>0.1273</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07645295162717428</v>
+        <v>0.06686944963875729</v>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K7" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00551586933076964</v>
+        <v>0.004343516702300265</v>
       </c>
       <c r="M7" t="n">
-        <v>5.552891070938572</v>
+        <v>5.54409719722304</v>
       </c>
       <c r="N7" t="n">
-        <v>50.60509594288453</v>
+        <v>50.26411443793658</v>
       </c>
       <c r="O7" t="n">
-        <v>7.113725883310695</v>
+        <v>7.089718925171617</v>
       </c>
       <c r="P7" t="n">
-        <v>405.1128302786031</v>
+        <v>405.2074069323129</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -14747,28 +14931,28 @@
         <v>0.1217</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1268990380756588</v>
+        <v>0.1176452912189022</v>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K8" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01689448304476526</v>
+        <v>0.01489363247473119</v>
       </c>
       <c r="M8" t="n">
-        <v>5.043832270911873</v>
+        <v>5.03611673675588</v>
       </c>
       <c r="N8" t="n">
-        <v>44.78683623307208</v>
+        <v>44.68238802022424</v>
       </c>
       <c r="O8" t="n">
-        <v>6.692296783098616</v>
+        <v>6.68448861321674</v>
       </c>
       <c r="P8" t="n">
-        <v>406.7761839954912</v>
+        <v>406.8678033329963</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -14824,28 +15008,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04800169848870282</v>
+        <v>0.03943129290796287</v>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K9" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00228374038952095</v>
+        <v>0.00158938519846219</v>
       </c>
       <c r="M9" t="n">
-        <v>5.518517946047298</v>
+        <v>5.490740464418194</v>
       </c>
       <c r="N9" t="n">
-        <v>48.43103466021461</v>
+        <v>48.03039692311766</v>
       </c>
       <c r="O9" t="n">
-        <v>6.959240954314961</v>
+        <v>6.9303965920514</v>
       </c>
       <c r="P9" t="n">
-        <v>400.5394182793264</v>
+        <v>400.624449694018</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -14882,7 +15066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29962,6 +30146,214 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.4343512911152,174.36196796104724</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.43500035207689,174.3622399669024</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.43558358876328,174.36269792514815</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-35.43616727760392,174.36317003270275</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-35.43667449562309,174.36374665379356</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>-35.43705917777403,174.3644415751576</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>-35.43738109294975,174.3651228199656</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>-35.43744720250663,174.36595468434905</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.43434307266463,174.36204222219484</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.434990404224884,174.36227557527704</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.43557010886248,174.36272566929014</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.43611513185846,174.36325221070575</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-35.436593703630535,174.36383974189278</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-35.4370240917556,174.3644707787015</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>-35.4372610805501,174.36517294338591</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>-35.437542874883434,174.36593466790947</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.434343862544836,174.36203508493014</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.434985986700845,174.36229138780658</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-35.435545910291324,174.36277547439295</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-35.436115168684566,174.36325215267047</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-35.43661223124155,174.36381839450243</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>-35.436979475606286,174.3645079145231</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>-35.43727801162636,174.365165872097</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>-35.43747546608336,174.36594877108809</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.43433980627328,174.362071736882</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.43499580120412,174.36225625677477</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-35.43559560854544,174.36267318618312</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-35.43617666825149,174.36315523368665</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-35.4366617427495,174.36376134760349</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-35.437050250482734,174.36444900571422</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-35.43730051598337,174.36515647311455</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-35.43749014810568,174.36594569933698</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -14314,7 +14314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14405,35 +14405,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -14492,27 +14497,28 @@
       <c r="P2" t="n">
         <v>377.15891825883</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.35794691848577 -35.434796227768345, 174.36805674561938 -35.43367729112807)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.3579469184858</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.43479622776835</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.3680567456194</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.43367729112807</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.3630018320526</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.43423675944821</v>
       </c>
     </row>
@@ -14569,27 +14575,28 @@
       <c r="P3" t="n">
         <v>391.255233701048</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.35823399426994 -35.436119411845965, 174.3678875664952 -35.433422430913964)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.3582339942699</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.43611941184597</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.3678875664952</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.43342243091396</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.3630607803826</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.43477092137996</v>
       </c>
     </row>
@@ -14646,27 +14653,28 @@
       <c r="P4" t="n">
         <v>391.4298435175621</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.35901779073515 -35.43737154098824, 174.36778693611765 -35.433110837633166)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.3590177907352</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.43737154098824</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.3677869361177</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.43311083763317</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.3634023634264</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.4352411893107</v>
       </c>
     </row>
@@ -14723,27 +14731,28 @@
       <c r="P5" t="n">
         <v>397.9303563954973</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.35976120552658 -35.43833022890443, 174.36781912375326 -35.433217022805465)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.3597612055266</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.43833022890443</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.3678191237533</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.43321702280547</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.3637901646399</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.43577362585495</v>
       </c>
     </row>
@@ -14800,27 +14809,28 @@
       <c r="P6" t="n">
         <v>397.1841522400426</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.3607940700961 -35.43923695008801, 174.3677875427914 -35.43316716036144)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.3607940700961</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.43923695008801</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.3677875427914</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.43316716036144</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.3642908064438</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.43620205522473</v>
       </c>
     </row>
@@ -14877,27 +14887,28 @@
       <c r="P7" t="n">
         <v>405.2074069323129</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.3619620408171 -35.44003803082367, 174.3676995747706 -35.433144691675736)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.3619620408171</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.44003803082367</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.3676995747706</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.43314469167574</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.3648308077939</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.4365913612497</v>
       </c>
     </row>
@@ -14954,27 +14965,28 @@
       <c r="P8" t="n">
         <v>406.8678033329963</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.3637043358562 -35.44077727235129, 174.36699945386522 -35.4328875494977)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.3637043358562</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.44077727235129</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.3669994538652</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.4328875494977</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.3653518948607</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.4368324109245</v>
       </c>
     </row>
@@ -15031,27 +15043,28 @@
       <c r="P9" t="n">
         <v>400.624449694018</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.36520385847064 -35.441035771898626, 174.36692304117216 -35.432818503131905)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.3652038584706</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.44103577189863</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.3669230411722</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.43281850313191</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.3660634498214</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.43692713751527</v>
       </c>
     </row>

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J305"/>
+  <dimension ref="A1:J306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11137,6 +11137,38 @@
         <v>399.0230769230769</v>
       </c>
       <c r="J305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>362.0130769230769</v>
+      </c>
+      <c r="C306" t="n">
+        <v>380.4731578947368</v>
+      </c>
+      <c r="D306" t="n">
+        <v>380.9536363636364</v>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="n">
+        <v>390.5836363636364</v>
+      </c>
+      <c r="H306" t="n">
+        <v>404.7733333333333</v>
+      </c>
+      <c r="I306" t="n">
+        <v>389.5830769230769</v>
+      </c>
+      <c r="J306" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11153,7 +11185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14301,6 +14333,16 @@
       </c>
       <c r="B314" t="n">
         <v>-0.33</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -14474,28 +14516,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0811564166973656</v>
+        <v>0.06782316959715703</v>
       </c>
       <c r="J2" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K2" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00390892528806297</v>
+        <v>0.002722571189549661</v>
       </c>
       <c r="M2" t="n">
-        <v>6.900878263218088</v>
+        <v>6.93338849145568</v>
       </c>
       <c r="N2" t="n">
-        <v>81.60080005372866</v>
+        <v>82.33463206224174</v>
       </c>
       <c r="O2" t="n">
-        <v>9.033316116118636</v>
+        <v>9.073843290593118</v>
       </c>
       <c r="P2" t="n">
-        <v>377.15891825883</v>
+        <v>377.2943473939907</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14552,28 +14594,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1123396932493026</v>
+        <v>0.101973653425364</v>
       </c>
       <c r="J3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K3" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009039376403304211</v>
+        <v>0.0074536204669996</v>
       </c>
       <c r="M3" t="n">
-        <v>6.251867582174514</v>
+        <v>6.278441950475869</v>
       </c>
       <c r="N3" t="n">
-        <v>67.84365926323285</v>
+        <v>68.24065853705093</v>
       </c>
       <c r="O3" t="n">
-        <v>8.23672624670948</v>
+        <v>8.26079043052485</v>
       </c>
       <c r="P3" t="n">
-        <v>391.255233701048</v>
+        <v>391.3597172554485</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14630,28 +14672,28 @@
         <v>0.1319</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1415567602214683</v>
+        <v>0.1306614288979851</v>
       </c>
       <c r="J4" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K4" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01581427640702004</v>
+        <v>0.01347186891305585</v>
       </c>
       <c r="M4" t="n">
-        <v>5.965799878616278</v>
+        <v>5.99354761720577</v>
       </c>
       <c r="N4" t="n">
-        <v>60.70775686274353</v>
+        <v>61.17334640279581</v>
       </c>
       <c r="O4" t="n">
-        <v>7.791518264288644</v>
+        <v>7.821339169400328</v>
       </c>
       <c r="P4" t="n">
-        <v>391.4298435175621</v>
+        <v>391.5397201904923</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14711,7 +14753,7 @@
         <v>0.07496953963902081</v>
       </c>
       <c r="J5" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K5" t="n">
         <v>293</v>
@@ -14789,7 +14831,7 @@
         <v>0.1298962495656334</v>
       </c>
       <c r="J6" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K6" t="n">
         <v>290</v>
@@ -14864,28 +14906,28 @@
         <v>0.1273</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06686944963875729</v>
+        <v>0.05399439478789771</v>
       </c>
       <c r="J7" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K7" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004343516702300265</v>
+        <v>0.002809787822959708</v>
       </c>
       <c r="M7" t="n">
-        <v>5.54409719722304</v>
+        <v>5.584016821314719</v>
       </c>
       <c r="N7" t="n">
-        <v>50.26411443793658</v>
+        <v>51.00951583043511</v>
       </c>
       <c r="O7" t="n">
-        <v>7.089718925171617</v>
+        <v>7.142094638860165</v>
       </c>
       <c r="P7" t="n">
-        <v>405.2074069323129</v>
+        <v>405.3359999626564</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14942,28 +14984,28 @@
         <v>0.1217</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1176452912189022</v>
+        <v>0.1135944751436902</v>
       </c>
       <c r="J8" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K8" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01489363247473119</v>
+        <v>0.01399367636138626</v>
       </c>
       <c r="M8" t="n">
-        <v>5.03611673675588</v>
+        <v>5.038073852231976</v>
       </c>
       <c r="N8" t="n">
-        <v>44.68238802022424</v>
+        <v>44.61547578884399</v>
       </c>
       <c r="O8" t="n">
-        <v>6.68448861321674</v>
+        <v>6.679481700614501</v>
       </c>
       <c r="P8" t="n">
-        <v>406.8678033329963</v>
+        <v>406.9084535884333</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15020,28 +15062,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03943129290796287</v>
+        <v>0.02939029448870227</v>
       </c>
       <c r="J9" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K9" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00158938519846219</v>
+        <v>0.000881998948608298</v>
       </c>
       <c r="M9" t="n">
-        <v>5.490740464418194</v>
+        <v>5.515164392268967</v>
       </c>
       <c r="N9" t="n">
-        <v>48.03039692311766</v>
+        <v>48.38582845214364</v>
       </c>
       <c r="O9" t="n">
-        <v>6.9303965920514</v>
+        <v>6.955992269413735</v>
       </c>
       <c r="P9" t="n">
-        <v>400.624449694018</v>
+        <v>400.7250294634299</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15079,7 +15121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J305"/>
+  <dimension ref="A1:J306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30367,6 +30409,50 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-35.43435896590273,174.36189861200262</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-35.43501142039132,174.36220034777415</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-35.43561841808718,174.36262623982168</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-35.43712793415869,174.3643843462868</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-35.43732434866537,174.3651465193491</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>-35.43757402975105,174.36592814972246</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J306"/>
+  <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11169,6 +11169,142 @@
         <v>389.5830769230769</v>
       </c>
       <c r="J306" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="n">
+        <v>397.9547826086956</v>
+      </c>
+      <c r="G307" t="n">
+        <v>401.2527272727273</v>
+      </c>
+      <c r="H307" t="n">
+        <v>405.5552380952381</v>
+      </c>
+      <c r="I307" t="n">
+        <v>391.4323076923077</v>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>374.9069230769231</v>
+      </c>
+      <c r="C308" t="n">
+        <v>389.6136842105263</v>
+      </c>
+      <c r="D308" t="n">
+        <v>389.59</v>
+      </c>
+      <c r="E308" t="n">
+        <v>394.12</v>
+      </c>
+      <c r="F308" t="n">
+        <v>395.3095652173913</v>
+      </c>
+      <c r="G308" t="n">
+        <v>404.1</v>
+      </c>
+      <c r="H308" t="n">
+        <v>405.7228571428572</v>
+      </c>
+      <c r="I308" t="n">
+        <v>401.0669230769231</v>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>377.2153846153847</v>
+      </c>
+      <c r="C309" t="n">
+        <v>396.2173684210526</v>
+      </c>
+      <c r="D309" t="n">
+        <v>395.1263636363637</v>
+      </c>
+      <c r="E309" t="n">
+        <v>399.05</v>
+      </c>
+      <c r="F309" t="n">
+        <v>399.5260869565217</v>
+      </c>
+      <c r="G309" t="n">
+        <v>408.5663636363636</v>
+      </c>
+      <c r="H309" t="n">
+        <v>410.7285714285715</v>
+      </c>
+      <c r="I309" t="n">
+        <v>406.8853846153846</v>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>368.6976923076923</v>
+      </c>
+      <c r="C310" t="n">
+        <v>382.611052631579</v>
+      </c>
+      <c r="D310" t="n">
+        <v>381.7927272727272</v>
+      </c>
+      <c r="E310" t="n">
+        <v>386.5266666666667</v>
+      </c>
+      <c r="F310" t="n">
+        <v>398.6465217391304</v>
+      </c>
+      <c r="G310" t="n">
+        <v>398.5527272727272</v>
+      </c>
+      <c r="H310" t="n">
+        <v>403.3890476190476</v>
+      </c>
+      <c r="I310" t="n">
+        <v>399.4776923076923</v>
+      </c>
+      <c r="J310" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11185,7 +11321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14343,6 +14479,46 @@
       </c>
       <c r="B315" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -14516,28 +14692,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06782316959715703</v>
+        <v>0.05552461396678897</v>
       </c>
       <c r="J2" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K2" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002722571189549661</v>
+        <v>0.001863213506497097</v>
       </c>
       <c r="M2" t="n">
-        <v>6.93338849145568</v>
+        <v>6.913298533267112</v>
       </c>
       <c r="N2" t="n">
-        <v>82.33463206224174</v>
+        <v>81.9122827577028</v>
       </c>
       <c r="O2" t="n">
-        <v>9.073843290593118</v>
+        <v>9.050540467712565</v>
       </c>
       <c r="P2" t="n">
-        <v>377.2943473939907</v>
+        <v>377.4198585131585</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14594,28 +14770,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.101973653425364</v>
+        <v>0.09197896937550684</v>
       </c>
       <c r="J3" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K3" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0074536204669996</v>
+        <v>0.006178363770412698</v>
       </c>
       <c r="M3" t="n">
-        <v>6.278441950475869</v>
+        <v>6.277364523481388</v>
       </c>
       <c r="N3" t="n">
-        <v>68.24065853705093</v>
+        <v>68.05960833919876</v>
       </c>
       <c r="O3" t="n">
-        <v>8.26079043052485</v>
+        <v>8.249824745968775</v>
       </c>
       <c r="P3" t="n">
-        <v>391.3597172554485</v>
+        <v>391.4609492941138</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14672,28 +14848,28 @@
         <v>0.1319</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1306614288979851</v>
+        <v>0.1169635603919365</v>
       </c>
       <c r="J4" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K4" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01347186891305585</v>
+        <v>0.01098073441105429</v>
       </c>
       <c r="M4" t="n">
-        <v>5.99354761720577</v>
+        <v>5.994771055607522</v>
       </c>
       <c r="N4" t="n">
-        <v>61.17334640279581</v>
+        <v>61.21545778437422</v>
       </c>
       <c r="O4" t="n">
-        <v>7.821339169400328</v>
+        <v>7.824030788818141</v>
       </c>
       <c r="P4" t="n">
-        <v>391.5397201904923</v>
+        <v>391.678512184936</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14750,28 +14926,28 @@
         <v>0.1454</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07496953963902081</v>
+        <v>0.06005159370778725</v>
       </c>
       <c r="J5" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K5" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004868246761354666</v>
+        <v>0.003170139506463832</v>
       </c>
       <c r="M5" t="n">
-        <v>5.824954470057746</v>
+        <v>5.833787059212044</v>
       </c>
       <c r="N5" t="n">
-        <v>56.40421763662881</v>
+        <v>56.53025210908196</v>
       </c>
       <c r="O5" t="n">
-        <v>7.51027413858035</v>
+        <v>7.518660260251288</v>
       </c>
       <c r="P5" t="n">
-        <v>397.9303563954973</v>
+        <v>398.0806634635646</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14828,28 +15004,28 @@
         <v>0.143</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1298962495656334</v>
+        <v>0.1218939237126642</v>
       </c>
       <c r="J6" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K6" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01345196518349434</v>
+        <v>0.01224954667270728</v>
       </c>
       <c r="M6" t="n">
-        <v>5.869915870449242</v>
+        <v>5.826106353002483</v>
       </c>
       <c r="N6" t="n">
-        <v>60.49669117061301</v>
+        <v>59.79865817910834</v>
       </c>
       <c r="O6" t="n">
-        <v>7.777961890534885</v>
+        <v>7.732959212300834</v>
       </c>
       <c r="P6" t="n">
-        <v>397.1841522400426</v>
+        <v>397.2646553716182</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14906,28 +15082,28 @@
         <v>0.1273</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05399439478789771</v>
+        <v>0.04307354630616978</v>
       </c>
       <c r="J7" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K7" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002809787822959708</v>
+        <v>0.001839670988766695</v>
       </c>
       <c r="M7" t="n">
-        <v>5.584016821314719</v>
+        <v>5.570845241626186</v>
       </c>
       <c r="N7" t="n">
-        <v>51.00951583043511</v>
+        <v>50.66601950128524</v>
       </c>
       <c r="O7" t="n">
-        <v>7.142094638860165</v>
+        <v>7.11800670843216</v>
       </c>
       <c r="P7" t="n">
-        <v>405.3359999626564</v>
+        <v>405.4455129822139</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14984,28 +15160,28 @@
         <v>0.1217</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1135944751436902</v>
+        <v>0.1029916607823304</v>
       </c>
       <c r="J8" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K8" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01399367636138626</v>
+        <v>0.01186508600308545</v>
       </c>
       <c r="M8" t="n">
-        <v>5.038073852231976</v>
+        <v>5.026114968379848</v>
       </c>
       <c r="N8" t="n">
-        <v>44.61547578884399</v>
+        <v>44.25584771525176</v>
       </c>
       <c r="O8" t="n">
-        <v>6.679481700614501</v>
+        <v>6.652506874498648</v>
       </c>
       <c r="P8" t="n">
-        <v>406.9084535884333</v>
+        <v>407.0152735618011</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15062,28 +15238,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02939029448870227</v>
+        <v>0.02378010347650739</v>
       </c>
       <c r="J9" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K9" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000881998948608298</v>
+        <v>0.0005927976620305753</v>
       </c>
       <c r="M9" t="n">
-        <v>5.515164392268967</v>
+        <v>5.499068325707208</v>
       </c>
       <c r="N9" t="n">
-        <v>48.38582845214364</v>
+        <v>48.16581115783728</v>
       </c>
       <c r="O9" t="n">
-        <v>6.955992269413735</v>
+        <v>6.940159303491331</v>
       </c>
       <c r="P9" t="n">
-        <v>400.7250294634299</v>
+        <v>400.7813385874189</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15121,7 +15297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J306"/>
+  <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30453,6 +30629,198 @@
         </is>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-35.43662682062764,174.3638015846989</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>-35.437048441994975,174.36445051099366</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>-35.43731767860173,174.36514930511464</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>-35.43755759791658,174.36593158757333</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-35.43434338954603,174.3620393588922</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-35.434984800314794,174.36229563447452</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-35.435578672909415,174.3627080428919</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-35.43615319162927,174.36319223122044</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-35.43664417047322,174.36378159429916</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-35.43702722782279,174.36446816842437</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>-35.43731624872205,174.36514990230668</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>-35.43747198696353,174.36594949898426</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-35.434340600801576,174.36206455763403</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-35.43496556827132,174.36236447546764</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-35.43555319413028,174.3627604829224</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-35.43612595873379,174.36323514833256</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-35.43661651452128,174.363813459334</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>-35.436993950286556,174.36449586666802</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>-35.437273547314305,174.36516773662382</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>-35.43742028546518,174.36596031588647</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-35.434350890601536,174.36197158006104</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-35.43500519417863,174.36222263456392</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-35.435614556531746,174.36263418763934</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-35.43619513651995,174.36312612894483</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-35.43662228354553,174.36380681229875</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-35.43706855888015,174.36443376686992</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-35.437336157358885,174.36514158742335</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-35.437486108498994,174.36594654449766</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J310"/>
+  <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11305,6 +11305,38 @@
         <v>399.4776923076923</v>
       </c>
       <c r="J310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>370.6669230769231</v>
+      </c>
+      <c r="C311" t="n">
+        <v>388.0221052631579</v>
+      </c>
+      <c r="D311" t="n">
+        <v>388.8018181818182</v>
+      </c>
+      <c r="E311" t="n">
+        <v>395.6833333333333</v>
+      </c>
+      <c r="F311" t="n">
+        <v>395.49</v>
+      </c>
+      <c r="G311" t="n">
+        <v>402.7718181818182</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11321,7 +11353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14519,6 +14551,16 @@
       </c>
       <c r="B319" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -14692,28 +14734,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05552461396678897</v>
+        <v>0.04935894535262585</v>
       </c>
       <c r="J2" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001863213506497097</v>
+        <v>0.001481155966897574</v>
       </c>
       <c r="M2" t="n">
-        <v>6.913298533267112</v>
+        <v>6.915315962567438</v>
       </c>
       <c r="N2" t="n">
-        <v>81.9122827577028</v>
+        <v>81.85840818683937</v>
       </c>
       <c r="O2" t="n">
-        <v>9.050540467712565</v>
+        <v>9.047563660281114</v>
       </c>
       <c r="P2" t="n">
-        <v>377.4198585131585</v>
+        <v>377.4830392270737</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14770,28 +14812,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09197896937550684</v>
+        <v>0.08768527900973959</v>
       </c>
       <c r="J3" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006178363770412698</v>
+        <v>0.005654958994338433</v>
       </c>
       <c r="M3" t="n">
-        <v>6.277364523481388</v>
+        <v>6.276904651945081</v>
       </c>
       <c r="N3" t="n">
-        <v>68.05960833919876</v>
+        <v>67.942721579091</v>
       </c>
       <c r="O3" t="n">
-        <v>8.249824745968775</v>
+        <v>8.242737505167261</v>
       </c>
       <c r="P3" t="n">
-        <v>391.4609492941138</v>
+        <v>391.5046117639086</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14848,28 +14890,28 @@
         <v>0.1319</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1169635603919365</v>
+        <v>0.1125343364744918</v>
       </c>
       <c r="J4" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01098073441105429</v>
+        <v>0.01023871104254725</v>
       </c>
       <c r="M4" t="n">
-        <v>5.994771055607522</v>
+        <v>5.993841505249151</v>
       </c>
       <c r="N4" t="n">
-        <v>61.21545778437422</v>
+        <v>61.12414630778152</v>
       </c>
       <c r="O4" t="n">
-        <v>7.824030788818141</v>
+        <v>7.818193289231312</v>
       </c>
       <c r="P4" t="n">
-        <v>391.678512184936</v>
+        <v>391.7235706792533</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14926,28 +14968,28 @@
         <v>0.1454</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06005159370778725</v>
+        <v>0.0570973676986127</v>
       </c>
       <c r="J5" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003170139506463832</v>
+        <v>0.002888276769456799</v>
       </c>
       <c r="M5" t="n">
-        <v>5.833787059212044</v>
+        <v>5.827498239894293</v>
       </c>
       <c r="N5" t="n">
-        <v>56.53025210908196</v>
+        <v>56.39167833031493</v>
       </c>
       <c r="O5" t="n">
-        <v>7.518660260251288</v>
+        <v>7.509439282017994</v>
       </c>
       <c r="P5" t="n">
-        <v>398.0806634635646</v>
+        <v>398.1105491981947</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15004,28 +15046,28 @@
         <v>0.143</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1218939237126642</v>
+        <v>0.118192639943139</v>
       </c>
       <c r="J6" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01224954667270728</v>
+        <v>0.01160656656935077</v>
       </c>
       <c r="M6" t="n">
-        <v>5.826106353002483</v>
+        <v>5.823078027266853</v>
       </c>
       <c r="N6" t="n">
-        <v>59.79865817910834</v>
+        <v>59.67685377059659</v>
       </c>
       <c r="O6" t="n">
-        <v>7.732959212300834</v>
+        <v>7.725079531668046</v>
       </c>
       <c r="P6" t="n">
-        <v>397.2646553716182</v>
+        <v>397.3020797862301</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15082,28 +15124,28 @@
         <v>0.1273</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04307354630616978</v>
+        <v>0.04021015011023878</v>
       </c>
       <c r="J7" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001839670988766695</v>
+        <v>0.00161569924593874</v>
       </c>
       <c r="M7" t="n">
-        <v>5.570845241626186</v>
+        <v>5.565261025450277</v>
       </c>
       <c r="N7" t="n">
-        <v>50.66601950128524</v>
+        <v>50.54050912397702</v>
       </c>
       <c r="O7" t="n">
-        <v>7.11800670843216</v>
+        <v>7.109184842439885</v>
       </c>
       <c r="P7" t="n">
-        <v>405.4455129822139</v>
+        <v>405.474363937142</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15163,7 +15205,7 @@
         <v>0.1029916607823304</v>
       </c>
       <c r="J8" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K8" t="n">
         <v>288</v>
@@ -15241,7 +15283,7 @@
         <v>0.02378010347650739</v>
       </c>
       <c r="J9" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
         <v>272</v>
@@ -15297,7 +15339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J310"/>
+  <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30821,6 +30863,50 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-35.43434851167821,174.36199307582663</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-35.434989435496675,174.36227904284092</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-35.4355823001821,174.36270057728876</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-35.43614455591214,174.36320584050392</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-35.43664298701081,174.36378295787864</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>-35.4370371237061,174.36445993167385</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11339,6 +11339,78 @@
       <c r="J311" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>372.6261538461538</v>
+      </c>
+      <c r="C312" t="n">
+        <v>387.5463157894737</v>
+      </c>
+      <c r="D312" t="n">
+        <v>391.4072727272728</v>
+      </c>
+      <c r="E312" t="n">
+        <v>395.7533333333333</v>
+      </c>
+      <c r="F312" t="n">
+        <v>394.6426086956522</v>
+      </c>
+      <c r="G312" t="n">
+        <v>401.7672727272728</v>
+      </c>
+      <c r="H312" t="n">
+        <v>403.4966666666666</v>
+      </c>
+      <c r="I312" t="n">
+        <v>394.9861538461539</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>361.7061538461539</v>
+      </c>
+      <c r="C313" t="n">
+        <v>374.1831578947368</v>
+      </c>
+      <c r="D313" t="n">
+        <v>379.1009090909091</v>
+      </c>
+      <c r="E313" t="n">
+        <v>382.31</v>
+      </c>
+      <c r="F313" t="n">
+        <v>378.5734782608696</v>
+      </c>
+      <c r="G313" t="n">
+        <v>389.0809090909091</v>
+      </c>
+      <c r="H313" t="n">
+        <v>392.1828571428572</v>
+      </c>
+      <c r="I313" t="n">
+        <v>392.5961538461539</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11353,7 +11425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B320"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14561,6 +14633,26 @@
       </c>
       <c r="B320" t="n">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -14734,28 +14826,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04935894535262585</v>
+        <v>0.03213149328085167</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001481155966897574</v>
+        <v>0.0006302047226655061</v>
       </c>
       <c r="M2" t="n">
-        <v>6.915315962567438</v>
+        <v>6.9416743671226</v>
       </c>
       <c r="N2" t="n">
-        <v>81.85840818683937</v>
+        <v>82.39752139544798</v>
       </c>
       <c r="O2" t="n">
-        <v>9.047563660281114</v>
+        <v>9.077308047843699</v>
       </c>
       <c r="P2" t="n">
-        <v>377.4830392270737</v>
+        <v>377.6603066050455</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14812,28 +14904,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08768527900973959</v>
+        <v>0.06886067737462337</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K3" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005654958994338433</v>
+        <v>0.003481240124665885</v>
       </c>
       <c r="M3" t="n">
-        <v>6.276904651945081</v>
+        <v>6.325396138072628</v>
       </c>
       <c r="N3" t="n">
-        <v>67.942721579091</v>
+        <v>68.87585859475729</v>
       </c>
       <c r="O3" t="n">
-        <v>8.242737505167261</v>
+        <v>8.299148064395363</v>
       </c>
       <c r="P3" t="n">
-        <v>391.5046117639086</v>
+        <v>391.6968421648587</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14890,28 +14982,28 @@
         <v>0.1319</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1125343364744918</v>
+        <v>0.09862230410989667</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01023871104254725</v>
+        <v>0.007906412418645536</v>
       </c>
       <c r="M4" t="n">
-        <v>5.993841505249151</v>
+        <v>6.013337529842366</v>
       </c>
       <c r="N4" t="n">
-        <v>61.12414630778152</v>
+        <v>61.54623539869484</v>
       </c>
       <c r="O4" t="n">
-        <v>7.818193289231312</v>
+        <v>7.845140878193</v>
       </c>
       <c r="P4" t="n">
-        <v>391.7235706792533</v>
+        <v>391.8656916896941</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14968,28 +15060,28 @@
         <v>0.1454</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0570973676986127</v>
+        <v>0.04150542775270708</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K5" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002888276769456799</v>
+        <v>0.001526034293022449</v>
       </c>
       <c r="M5" t="n">
-        <v>5.827498239894293</v>
+        <v>5.857807002974148</v>
       </c>
       <c r="N5" t="n">
-        <v>56.39167833031493</v>
+        <v>57.0446903779599</v>
       </c>
       <c r="O5" t="n">
-        <v>7.509439282017994</v>
+        <v>7.552793547950315</v>
       </c>
       <c r="P5" t="n">
-        <v>398.1105491981947</v>
+        <v>398.2689398315132</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15046,28 +15138,28 @@
         <v>0.143</v>
       </c>
       <c r="I6" t="n">
-        <v>0.118192639943139</v>
+        <v>0.09777297288154765</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K6" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01160656656935077</v>
+        <v>0.007884537639315292</v>
       </c>
       <c r="M6" t="n">
-        <v>5.823078027266853</v>
+        <v>5.877417825837875</v>
       </c>
       <c r="N6" t="n">
-        <v>59.67685377059659</v>
+        <v>60.95329468872472</v>
       </c>
       <c r="O6" t="n">
-        <v>7.725079531668046</v>
+        <v>7.807259102189751</v>
       </c>
       <c r="P6" t="n">
-        <v>397.3020797862301</v>
+        <v>397.5094057599779</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15124,28 +15216,28 @@
         <v>0.1273</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04021015011023878</v>
+        <v>0.02366244155359868</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K7" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00161569924593874</v>
+        <v>0.0005574966466002085</v>
       </c>
       <c r="M7" t="n">
-        <v>5.565261025450277</v>
+        <v>5.607814538296092</v>
       </c>
       <c r="N7" t="n">
-        <v>50.54050912397702</v>
+        <v>51.28998955320392</v>
       </c>
       <c r="O7" t="n">
-        <v>7.109184842439885</v>
+        <v>7.161702978566196</v>
       </c>
       <c r="P7" t="n">
-        <v>405.474363937142</v>
+        <v>405.6417963183821</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15202,28 +15294,28 @@
         <v>0.1217</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1029916607823304</v>
+        <v>0.08498810576059652</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K8" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01186508600308545</v>
+        <v>0.00803871819726143</v>
       </c>
       <c r="M8" t="n">
-        <v>5.026114968379848</v>
+        <v>5.080494483956406</v>
       </c>
       <c r="N8" t="n">
-        <v>44.25584771525176</v>
+        <v>45.11489519369851</v>
       </c>
       <c r="O8" t="n">
-        <v>6.652506874498648</v>
+        <v>6.716762255260976</v>
       </c>
       <c r="P8" t="n">
-        <v>407.0152735618011</v>
+        <v>407.1982795671292</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15280,28 +15372,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02378010347650739</v>
+        <v>0.01169299197979112</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K9" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005927976620305753</v>
+        <v>0.000144712558622917</v>
       </c>
       <c r="M9" t="n">
-        <v>5.499068325707208</v>
+        <v>5.512160879242264</v>
       </c>
       <c r="N9" t="n">
-        <v>48.16581115783728</v>
+        <v>48.23628875364525</v>
       </c>
       <c r="O9" t="n">
-        <v>6.940159303491331</v>
+        <v>6.945234967489959</v>
       </c>
       <c r="P9" t="n">
-        <v>400.7813385874189</v>
+        <v>400.9039892377116</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15339,7 +15431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30907,6 +30999,110 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-35.43434614483158,174.36201446243268</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-35.43499082114586,174.36227408290776</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-35.435570309680415,174.36272525596965</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-35.43614416923822,174.36320644987475</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-35.436648545006435,174.36377655398334</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-35.43704460827183,174.36445370196046</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-35.43733523931117,174.365141970848</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-35.43752601926598,174.36593819442118</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-35.434359336677886,174.36189526168516</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-35.43502973879915,174.36213477674798</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-35.43562694446672,174.36260869089978</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-35.43621842899245,174.3630894215495</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-35.43675394153827,174.36365511637905</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-35.43713913052153,174.36437502706548</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-35.43743175211779,174.3651016620165</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-35.43754725625031,174.36593375124502</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J313"/>
+  <dimension ref="A1:J314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11411,6 +11411,42 @@
       <c r="J313" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>388.6869230769231</v>
+      </c>
+      <c r="C314" t="n">
+        <v>403.6963157894737</v>
+      </c>
+      <c r="D314" t="n">
+        <v>404.0854545454546</v>
+      </c>
+      <c r="E314" t="n">
+        <v>409.6633333333333</v>
+      </c>
+      <c r="F314" t="n">
+        <v>403.5460869565218</v>
+      </c>
+      <c r="G314" t="n">
+        <v>410.0654545454545</v>
+      </c>
+      <c r="H314" t="n">
+        <v>408.8680952380952</v>
+      </c>
+      <c r="I314" t="n">
+        <v>390.9669230769231</v>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11425,7 +11461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14653,6 +14689,16 @@
       </c>
       <c r="B322" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -14826,28 +14872,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03213149328085167</v>
+        <v>0.03969475728664459</v>
       </c>
       <c r="J2" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006302047226655061</v>
+        <v>0.0009653811210281749</v>
       </c>
       <c r="M2" t="n">
-        <v>6.9416743671226</v>
+        <v>6.954546493396145</v>
       </c>
       <c r="N2" t="n">
-        <v>82.39752139544798</v>
+        <v>82.46624233416786</v>
       </c>
       <c r="O2" t="n">
-        <v>9.077308047843699</v>
+        <v>9.081092573813343</v>
       </c>
       <c r="P2" t="n">
-        <v>377.6603066050455</v>
+        <v>377.5821226038726</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14904,28 +14950,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06886067737462337</v>
+        <v>0.07629780333267143</v>
       </c>
       <c r="J3" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003481240124665885</v>
+        <v>0.004283985830067172</v>
       </c>
       <c r="M3" t="n">
-        <v>6.325396138072628</v>
+        <v>6.33587376267972</v>
       </c>
       <c r="N3" t="n">
-        <v>68.87585859475729</v>
+        <v>68.98982162904848</v>
       </c>
       <c r="O3" t="n">
-        <v>8.299148064395363</v>
+        <v>8.306011174387407</v>
       </c>
       <c r="P3" t="n">
-        <v>391.6968421648587</v>
+        <v>391.6205465104219</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14982,28 +15028,28 @@
         <v>0.1319</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09862230410989667</v>
+        <v>0.1057738465356761</v>
       </c>
       <c r="J4" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007906412418645536</v>
+        <v>0.009113722597686169</v>
       </c>
       <c r="M4" t="n">
-        <v>6.013337529842366</v>
+        <v>6.026906879015564</v>
       </c>
       <c r="N4" t="n">
-        <v>61.54623539869484</v>
+        <v>61.64906406965287</v>
       </c>
       <c r="O4" t="n">
-        <v>7.845140878193</v>
+        <v>7.851691796654583</v>
       </c>
       <c r="P4" t="n">
-        <v>391.8656916896941</v>
+        <v>391.7923059834813</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15060,28 +15106,28 @@
         <v>0.1454</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04150542775270708</v>
+        <v>0.04911273208259245</v>
       </c>
       <c r="J5" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001526034293022449</v>
+        <v>0.002140110805172402</v>
       </c>
       <c r="M5" t="n">
-        <v>5.857807002974148</v>
+        <v>5.872938886537054</v>
       </c>
       <c r="N5" t="n">
-        <v>57.0446903779599</v>
+        <v>57.20516320629516</v>
       </c>
       <c r="O5" t="n">
-        <v>7.552793547950315</v>
+        <v>7.563409496139632</v>
       </c>
       <c r="P5" t="n">
-        <v>398.2689398315132</v>
+        <v>398.1913147983461</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15138,28 +15184,28 @@
         <v>0.143</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09777297288154765</v>
+        <v>0.1003653198770239</v>
       </c>
       <c r="J6" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K6" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007884537639315292</v>
+        <v>0.008368623446027845</v>
       </c>
       <c r="M6" t="n">
-        <v>5.877417825837875</v>
+        <v>5.868996739261569</v>
       </c>
       <c r="N6" t="n">
-        <v>60.95329468872472</v>
+        <v>60.78930711913961</v>
       </c>
       <c r="O6" t="n">
-        <v>7.807259102189751</v>
+        <v>7.796749779179758</v>
       </c>
       <c r="P6" t="n">
-        <v>397.5094057599779</v>
+        <v>397.4829662403569</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15216,28 +15262,28 @@
         <v>0.1273</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02366244155359868</v>
+        <v>0.02649944512788373</v>
       </c>
       <c r="J7" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K7" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005574966466002085</v>
+        <v>0.0007043430057762645</v>
       </c>
       <c r="M7" t="n">
-        <v>5.607814538296092</v>
+        <v>5.600386141441475</v>
       </c>
       <c r="N7" t="n">
-        <v>51.28998955320392</v>
+        <v>51.16430081605255</v>
       </c>
       <c r="O7" t="n">
-        <v>7.161702978566196</v>
+        <v>7.152922536701523</v>
       </c>
       <c r="P7" t="n">
-        <v>405.6417963183821</v>
+        <v>405.6129597112393</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15294,28 +15340,28 @@
         <v>0.1217</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08498810576059652</v>
+        <v>0.08457982065272585</v>
       </c>
       <c r="J8" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K8" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00803871819726143</v>
+        <v>0.008030296580945562</v>
       </c>
       <c r="M8" t="n">
-        <v>5.080494483956406</v>
+        <v>5.065038668702784</v>
       </c>
       <c r="N8" t="n">
-        <v>45.11489519369851</v>
+        <v>44.96084356463521</v>
       </c>
       <c r="O8" t="n">
-        <v>6.716762255260976</v>
+        <v>6.705284748959973</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1982795671292</v>
+        <v>407.2024487021354</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15372,28 +15418,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01169299197979112</v>
+        <v>0.003570885448833605</v>
       </c>
       <c r="J9" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K9" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000144712558622917</v>
+        <v>1.351331376275855e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>5.512160879242264</v>
+        <v>5.528027730318392</v>
       </c>
       <c r="N9" t="n">
-        <v>48.23628875364525</v>
+        <v>48.43747175386379</v>
       </c>
       <c r="O9" t="n">
-        <v>6.945234967489959</v>
+        <v>6.959703424274902</v>
       </c>
       <c r="P9" t="n">
-        <v>400.9039892377116</v>
+        <v>400.9868002662894</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -15431,7 +15477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J313"/>
+  <dimension ref="A1:J314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31103,6 +31149,58 @@
         </is>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-35.434326742494775,174.3621897788108</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-35.43494378713459,174.36244244071818</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-35.4355119636452,174.36284534270365</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-35.43606733154432,174.36332754044804</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-35.43659014753794,174.36384383919747</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-35.43698278100834,174.3645051633053</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-35.437289418166955,174.36516110813687</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-35.437561733216015,174.36593072239052</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J314"/>
+  <dimension ref="A1:J316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11445,6 +11445,76 @@
         <v>390.9669230769231</v>
       </c>
       <c r="J314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:11:39+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="n">
+        <v>383.7484210526316</v>
+      </c>
+      <c r="D315" t="n">
+        <v>384.9336363636364</v>
+      </c>
+      <c r="E315" t="n">
+        <v>386.6833333333333</v>
+      </c>
+      <c r="F315" t="n">
+        <v>386.0769565217391</v>
+      </c>
+      <c r="G315" t="n">
+        <v>387.9236363636364</v>
+      </c>
+      <c r="H315" t="n">
+        <v>387.9166666666667</v>
+      </c>
+      <c r="I315" t="n">
+        <v>393.5292307692308</v>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>373.4346153846154</v>
+      </c>
+      <c r="C316" t="n">
+        <v>389.8568421052632</v>
+      </c>
+      <c r="D316" t="n">
+        <v>388.6772727272728</v>
+      </c>
+      <c r="E316" t="n">
+        <v>398.29</v>
+      </c>
+      <c r="F316" t="n">
+        <v>395.91</v>
+      </c>
+      <c r="G316" t="n">
+        <v>398.0172727272728</v>
+      </c>
+      <c r="H316" t="n">
+        <v>401.5185714285714</v>
+      </c>
+      <c r="I316" t="n">
+        <v>387.6246153846154</v>
+      </c>
+      <c r="J316" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11461,7 +11531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14699,6 +14769,26 @@
       </c>
       <c r="B323" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15477,7 +15567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J314"/>
+  <dimension ref="A1:J316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31201,6 +31291,106 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:11:39+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-35.4350018818073,174.3622344912224</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-35.43560010184249,174.36266393813094</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-35.436194271107716,174.3631274927765</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-35.436704726656686,174.3637118216911</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-35.43714775300738,174.3643678501921</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-35.43746814498599,174.3650864624124</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-35.43753896514573,174.36593548590017</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-35.43434516816939,174.36202328745108</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-35.43498409216181,174.36229816930725</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-35.435582873349695,174.36269939760285</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-35.4361301569093,174.36322853230908</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-35.43664023225247,174.3637861318972</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-35.43707254839011,174.36443044623294</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-35.437352113515495,174.36513492329854</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-35.43759143218461,174.36592450880246</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -14962,28 +14962,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03969475728664459</v>
+        <v>0.0358797970949505</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K2" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009653811210281749</v>
+        <v>0.0007945166019893701</v>
       </c>
       <c r="M2" t="n">
-        <v>6.954546493396145</v>
+        <v>6.947413332028517</v>
       </c>
       <c r="N2" t="n">
-        <v>82.46624233416786</v>
+        <v>82.27725775987615</v>
       </c>
       <c r="O2" t="n">
-        <v>9.081092573813343</v>
+        <v>9.070681218071559</v>
       </c>
       <c r="P2" t="n">
-        <v>377.5821226038726</v>
+        <v>377.6216278088249</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15040,28 +15040,28 @@
         <v>0.1102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07629780333267143</v>
+        <v>0.06658700395252656</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004283985830067172</v>
+        <v>0.003301676072730353</v>
       </c>
       <c r="M3" t="n">
-        <v>6.33587376267972</v>
+        <v>6.3411460250598</v>
       </c>
       <c r="N3" t="n">
-        <v>68.98982162904848</v>
+        <v>68.89423489717261</v>
       </c>
       <c r="O3" t="n">
-        <v>8.306011174387407</v>
+        <v>8.300255110366946</v>
       </c>
       <c r="P3" t="n">
-        <v>391.6205465104219</v>
+        <v>391.7202779362732</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15118,28 +15118,28 @@
         <v>0.1319</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1057738465356761</v>
+        <v>0.09454556199326263</v>
       </c>
       <c r="J4" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K4" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009113722597686169</v>
+        <v>0.007365351612654392</v>
       </c>
       <c r="M4" t="n">
-        <v>6.026906879015564</v>
+        <v>6.035036386457016</v>
       </c>
       <c r="N4" t="n">
-        <v>61.64906406965287</v>
+        <v>61.65146237325491</v>
       </c>
       <c r="O4" t="n">
-        <v>7.851691796654583</v>
+        <v>7.851844520445811</v>
       </c>
       <c r="P4" t="n">
-        <v>391.7923059834813</v>
+        <v>391.9076620533436</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15196,28 +15196,28 @@
         <v>0.1454</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04911273208259245</v>
+        <v>0.03902929456744576</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K5" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002140110805172402</v>
+        <v>0.001362116847923867</v>
       </c>
       <c r="M5" t="n">
-        <v>5.872938886537054</v>
+        <v>5.879030442620187</v>
       </c>
       <c r="N5" t="n">
-        <v>57.20516320629516</v>
+        <v>57.36479788232206</v>
       </c>
       <c r="O5" t="n">
-        <v>7.563409496139632</v>
+        <v>7.573955233715212</v>
       </c>
       <c r="P5" t="n">
-        <v>398.1913147983461</v>
+        <v>398.2943014810757</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15274,28 +15274,28 @@
         <v>0.143</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1003653198770239</v>
+        <v>0.08715123574485457</v>
       </c>
       <c r="J6" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K6" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008368623446027845</v>
+        <v>0.00635455147439401</v>
       </c>
       <c r="M6" t="n">
-        <v>5.868996739261569</v>
+        <v>5.891323768664742</v>
       </c>
       <c r="N6" t="n">
-        <v>60.78930711913961</v>
+        <v>61.08452016379278</v>
       </c>
       <c r="O6" t="n">
-        <v>7.796749779179758</v>
+        <v>7.815658651949481</v>
       </c>
       <c r="P6" t="n">
-        <v>397.4829662403569</v>
+        <v>397.6178797010478</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15352,28 +15352,28 @@
         <v>0.1273</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02649944512788373</v>
+        <v>0.007049374835710319</v>
       </c>
       <c r="J7" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007043430057762645</v>
+        <v>4.940348588367005e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>5.600386141441475</v>
+        <v>5.660163000221353</v>
       </c>
       <c r="N7" t="n">
-        <v>51.16430081605255</v>
+        <v>52.1638545041254</v>
       </c>
       <c r="O7" t="n">
-        <v>7.152922536701523</v>
+        <v>7.222454880726179</v>
       </c>
       <c r="P7" t="n">
-        <v>405.6129597112393</v>
+        <v>405.810884562771</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15430,28 +15430,28 @@
         <v>0.1217</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08457982065272585</v>
+        <v>0.0627567035430269</v>
       </c>
       <c r="J8" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K8" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008030296580945562</v>
+        <v>0.0043425562140883</v>
       </c>
       <c r="M8" t="n">
-        <v>5.065038668702784</v>
+        <v>5.139170144497164</v>
       </c>
       <c r="N8" t="n">
-        <v>44.96084356463521</v>
+        <v>46.40700575920196</v>
       </c>
       <c r="O8" t="n">
-        <v>6.705284748959973</v>
+        <v>6.81226876739328</v>
       </c>
       <c r="P8" t="n">
-        <v>407.2024487021354</v>
+        <v>407.4255343949689</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -15508,28 +15508,28 @@
         <v>0.0725</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003570885448833605</v>
+        <v>-0.01273251705670779</v>
       </c>
       <c r="J9" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K9" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L9" t="n">
-        <v>1.351331376275855e-05</v>
+        <v>0.000171824477554483</v>
       </c>
       <c r="M9" t="n">
-        <v>5.528027730318392</v>
+        <v>5.561688817225995</v>
       </c>
       <c r="N9" t="n">
-        <v>48.43747175386379</v>
+        <v>48.92758662057073</v>
       </c>
       <c r="O9" t="n">
-        <v>6.959703424274902</v>
+        <v>6.994825703373225</v>
       </c>
       <c r="P9" t="n">
-        <v>400.9868002662894</v>
+        <v>401.1532654527596</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -14956,10 +14956,10 @@
         <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0589</v>
+        <v>0.056</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07290000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="I2" t="n">
         <v>0.03591727343944492</v>
@@ -15031,13 +15031,13 @@
         <v>0.1394962078726406</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0808</v>
+        <v>0.0557</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1102</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="I3" t="n">
         <v>0.0666121687230698</v>
@@ -15109,13 +15109,13 @@
         <v>0.2832583544385757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.093</v>
+        <v>0.0866</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1319</v>
+        <v>0.1102</v>
       </c>
       <c r="I4" t="n">
         <v>0.09452978355980592</v>
@@ -15187,13 +15187,13 @@
         <v>0.4267113324214445</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1011</v>
+        <v>0.0693</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1454</v>
+        <v>0.0961</v>
       </c>
       <c r="I5" t="n">
         <v>0.039029923357231</v>
@@ -15265,13 +15265,13 @@
         <v>0.5703055849081878</v>
       </c>
       <c r="F6" t="n">
-        <v>0.115</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.098</v>
+        <v>0.0659</v>
       </c>
       <c r="H6" t="n">
-        <v>0.143</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>0.08715869991340723</v>
@@ -15343,13 +15343,13 @@
         <v>0.7135418248698108</v>
       </c>
       <c r="F7" t="n">
-        <v>0.11</v>
+        <v>0.145</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0941</v>
+        <v>0.1187</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1273</v>
+        <v>0.1852</v>
       </c>
       <c r="I7" t="n">
         <v>0.007036545542544175</v>
@@ -15421,13 +15421,13 @@
         <v>0.8565935299234385</v>
       </c>
       <c r="F8" t="n">
-        <v>0.105</v>
+        <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0906</v>
+        <v>0.0794</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1217</v>
+        <v>0.119</v>
       </c>
       <c r="I8" t="n">
         <v>0.06277645995294202</v>
@@ -15499,13 +15499,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0598</v>
+        <v>0.0584</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0725</v>
+        <v>0.0883</v>
       </c>
       <c r="I9" t="n">
         <v>-0.01269278901001874</v>

--- a/data/nzd0073/nzd0073.xlsx
+++ b/data/nzd0073/nzd0073.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J317"/>
+  <dimension ref="A1:J318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11861,6 +11861,42 @@
       <c r="J317" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>372.57</v>
+      </c>
+      <c r="C318" t="n">
+        <v>388.67</v>
+      </c>
+      <c r="D318" t="n">
+        <v>389.25</v>
+      </c>
+      <c r="E318" t="n">
+        <v>394.48</v>
+      </c>
+      <c r="F318" t="n">
+        <v>393.45</v>
+      </c>
+      <c r="G318" t="n">
+        <v>399.23</v>
+      </c>
+      <c r="H318" t="n">
+        <v>401.15</v>
+      </c>
+      <c r="I318" t="n">
+        <v>394.55</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11875,7 +11911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B326"/>
+  <dimension ref="A1:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15143,6 +15179,16 @@
       </c>
       <c r="B326" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -15310,34 +15356,34 @@
         <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0559</v>
+        <v>0.0558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0819</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06984924838367457</v>
+        <v>0.06574508186346807</v>
       </c>
       <c r="J2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01549368760182446</v>
+        <v>0.01375385490228176</v>
       </c>
       <c r="M2" t="n">
-        <v>3.097856827291887</v>
+        <v>3.106287566210763</v>
       </c>
       <c r="N2" t="n">
-        <v>16.12133391946317</v>
+        <v>16.18753419393552</v>
       </c>
       <c r="O2" t="n">
-        <v>4.015138094694025</v>
+        <v>4.023373484271069</v>
       </c>
       <c r="P2" t="n">
-        <v>376.8688867824226</v>
+        <v>376.911273153665</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15395,31 +15441,31 @@
         <v>0.0557</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09279999999999999</v>
+        <v>0.093</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08925043326171282</v>
+        <v>0.08580454619430757</v>
       </c>
       <c r="J3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K3" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02689858494388764</v>
+        <v>0.02496046672336771</v>
       </c>
       <c r="M3" t="n">
-        <v>3.06011236901456</v>
+        <v>3.069116068377755</v>
       </c>
       <c r="N3" t="n">
-        <v>14.98522008311092</v>
+        <v>15.02046570149638</v>
       </c>
       <c r="O3" t="n">
-        <v>3.871074796889221</v>
+        <v>3.875624556313005</v>
       </c>
       <c r="P3" t="n">
-        <v>391.4826781724784</v>
+        <v>391.5182660677988</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15474,34 +15520,34 @@
         <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.0864</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1102</v>
+        <v>0.1099</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1217204371260596</v>
+        <v>0.1180897411941054</v>
       </c>
       <c r="J4" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05505241194410149</v>
+        <v>0.05201307066557626</v>
       </c>
       <c r="M4" t="n">
-        <v>2.968403813500199</v>
+        <v>2.974595919123076</v>
       </c>
       <c r="N4" t="n">
-        <v>13.22428394752636</v>
+        <v>13.27417304294984</v>
       </c>
       <c r="O4" t="n">
-        <v>3.636520857567898</v>
+        <v>3.643373854403339</v>
       </c>
       <c r="P4" t="n">
-        <v>391.4859988148132</v>
+        <v>391.5234953503175</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -15562,28 +15608,28 @@
         <v>0.0961</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05860166599152673</v>
+        <v>0.05509877324799085</v>
       </c>
       <c r="J5" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K5" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01547900381432132</v>
+        <v>0.01370820572242815</v>
       </c>
       <c r="M5" t="n">
-        <v>2.648115440075717</v>
+        <v>2.657507629910853</v>
       </c>
       <c r="N5" t="n">
-        <v>11.35836158193212</v>
+        <v>11.4078011723412</v>
       </c>
       <c r="O5" t="n">
-        <v>3.370216844942195</v>
+        <v>3.377543659575876</v>
       </c>
       <c r="P5" t="n">
-        <v>398.1705932120831</v>
+        <v>398.2067698417395</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -15638,34 +15684,34 @@
         <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.066</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0914</v>
       </c>
       <c r="I6" t="n">
-        <v>0.114653966412088</v>
+        <v>0.1099903742657812</v>
       </c>
       <c r="J6" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K6" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04253470726839692</v>
+        <v>0.03919062303399901</v>
       </c>
       <c r="M6" t="n">
-        <v>2.863812484843936</v>
+        <v>2.878964796487025</v>
       </c>
       <c r="N6" t="n">
-        <v>15.38762337920398</v>
+        <v>15.49022415431695</v>
       </c>
       <c r="O6" t="n">
-        <v>3.922706129600327</v>
+        <v>3.935762207542136</v>
       </c>
       <c r="P6" t="n">
-        <v>397.4078868800314</v>
+        <v>397.4560508000536</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -15720,34 +15766,34 @@
         <v>0.145</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1186</v>
+        <v>0.1188</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1855</v>
+        <v>0.1852</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06018965018920956</v>
+        <v>0.05551494611829266</v>
       </c>
       <c r="J7" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K7" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01620662413834006</v>
+        <v>0.013742307016674</v>
       </c>
       <c r="M7" t="n">
-        <v>2.583916158626155</v>
+        <v>2.597050241437666</v>
       </c>
       <c r="N7" t="n">
-        <v>11.43585819820208</v>
+        <v>11.55164621945565</v>
       </c>
       <c r="O7" t="n">
-        <v>3.381694574943467</v>
+        <v>3.398771280838952</v>
       </c>
       <c r="P7" t="n">
-        <v>404.6336227819728</v>
+        <v>404.6819014619978</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -15802,34 +15848,34 @@
         <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0794</v>
+        <v>0.0795</v>
       </c>
       <c r="H8" t="n">
-        <v>0.119</v>
+        <v>0.1192</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1129713289936651</v>
+        <v>0.1072110993124226</v>
       </c>
       <c r="J8" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K8" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07345568971025151</v>
+        <v>0.06542316064550291</v>
       </c>
       <c r="M8" t="n">
-        <v>2.258927055549645</v>
+        <v>2.279522956076408</v>
       </c>
       <c r="N8" t="n">
-        <v>8.371263597256311</v>
+        <v>8.57543715621445</v>
       </c>
       <c r="O8" t="n">
-        <v>2.893313601609115</v>
+        <v>2.928384735005708</v>
       </c>
       <c r="P8" t="n">
-        <v>406.7898736952448</v>
+        <v>406.8493632974597</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -15884,34 +15930,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0583</v>
+        <v>0.0584</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0883</v>
+        <v>0.0886</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00950495060217723</v>
+        <v>0.005192381952387838</v>
       </c>
       <c r="J9" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K9" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005269329944668222</v>
+        <v>0.0001562169828474014</v>
       </c>
       <c r="M9" t="n">
-        <v>2.389473888309846</v>
+        <v>2.403467347821742</v>
       </c>
       <c r="N9" t="n">
-        <v>8.911056961357707</v>
+        <v>9.012192214272481</v>
       </c>
       <c r="O9" t="n">
-        <v>2.985139353758499</v>
+        <v>3.002031347982975</v>
       </c>
       <c r="P9" t="n">
-        <v>400.7366543728804</v>
+        <v>400.7811930471516</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -15953,7 +15999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J317"/>
+  <dimension ref="A1:J318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32445,6 +32491,58 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-35.43434621266823,174.36201384946753</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-35.4349875486223,174.36228579690894</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-35.435580237615326,174.36270482243575</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-35.43615120302077,174.3631953651282</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-35.4366563672645,174.36376754121386</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-35.43706351272566,174.364437966996</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-35.43735525762574,174.3651336101535</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-35.437529894827655,174.36593738358104</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
